--- a/group-reports/tables/shahriar-3-1-results-test-2.xlsx
+++ b/group-reports/tables/shahriar-3-1-results-test-2.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>5259 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>2849.93</t>
+          <t>2849.93 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>62 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>9163</t>
+          <t>9163 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>5848.75</t>
+          <t>5848.75 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>6568</t>
+          <t>6568 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>3026.30</t>
+          <t>3026.30 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>5159</t>
+          <t>5159 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>2802.32</t>
+          <t>2802.32 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>436 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>11299</t>
+          <t>11299 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>5777.34</t>
+          <t>5777.34 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>473 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>12287</t>
+          <t>12287 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>6251.42</t>
+          <t>6251.42 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5366 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>2799.28</t>
+          <t>2799.28 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>4794</t>
+          <t>4794 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>2801.19</t>
+          <t>2801.19 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>5276</t>
+          <t>5276 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>2809.60</t>
+          <t>2809.60 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>116 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>5229</t>
+          <t>5229 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>2797.07</t>
+          <t>2797.07 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>5386</t>
+          <t>5386 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>2800.91</t>
+          <t>2800.91 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>5207</t>
+          <t>5207 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>2800.64</t>
+          <t>2800.64 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>14680</t>
+          <t>14680 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>7415.36</t>
+          <t>7415.36 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>454 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>11732</t>
+          <t>11732 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>6597.86</t>
+          <t>6597.86 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>6707 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>2870.32</t>
+          <t>2870.32 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>67 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>5236 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>2805.09</t>
+          <t>2805.09 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>87 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>5164</t>
+          <t>5164 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>2792.27</t>
+          <t>2792.27 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>172 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5233 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>2794.11</t>
+          <t>2794.11 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>479 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>12717</t>
+          <t>12717 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>6888.81</t>
+          <t>6888.81 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>308 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>5235</t>
+          <t>5235 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>2793.99</t>
+          <t>2793.99 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>5277 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>2795.19</t>
+          <t>2795.19 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
